--- a/вариант 2024 2025/яндекс/1/18 (1).xlsx
+++ b/вариант 2024 2025/яндекс/1/18 (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -419,20 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="4.7109375" customWidth="1"/>
     <col min="16" max="16" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.4" customHeight="1">
+    <row r="1" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>14</v>
       </c>
@@ -480,7 +487,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="21.4" customHeight="1">
+    <row r="2" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>27</v>
       </c>
@@ -528,7 +535,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="21.4" customHeight="1">
+    <row r="3" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>20</v>
       </c>
@@ -576,7 +583,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="21.4" customHeight="1">
+    <row r="4" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>87</v>
       </c>
@@ -624,7 +631,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="21.4" customHeight="1">
+    <row r="5" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>61</v>
       </c>
@@ -672,7 +679,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="21.4" customHeight="1">
+    <row r="6" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>49</v>
       </c>
@@ -720,7 +727,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="21.4" customHeight="1">
+    <row r="7" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>75</v>
       </c>
@@ -768,7 +775,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="21.4" customHeight="1">
+    <row r="8" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>74</v>
       </c>
@@ -816,7 +823,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="21.4" customHeight="1">
+    <row r="9" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>57</v>
       </c>
@@ -864,7 +871,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="21.4" customHeight="1">
+    <row r="10" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>18</v>
       </c>
@@ -912,7 +919,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="21.4" customHeight="1">
+    <row r="11" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>32</v>
       </c>
@@ -960,7 +967,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="21.4" customHeight="1">
+    <row r="12" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>52</v>
       </c>
@@ -1008,7 +1015,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="21.4" customHeight="1">
+    <row r="13" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>34</v>
       </c>
@@ -1056,7 +1063,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="21.4" customHeight="1">
+    <row r="14" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>56</v>
       </c>
@@ -1104,7 +1111,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="21.4" customHeight="1">
+    <row r="15" spans="1:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>56</v>
       </c>
@@ -1152,7 +1159,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="21.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:16" ht="21.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1170,372 +1177,372 @@
       <c r="O16" s="1"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickTop="1">
+    <row r="17" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>MIN(B17,A18)+A1</f>
-        <v>949</v>
+        <f>MAX(B17,A18)+A1</f>
+        <v>1666</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" ref="B17:B20" si="0">B18+B1</f>
-        <v>960</v>
+        <v>1631</v>
       </c>
       <c r="C17" s="4">
-        <f>MIN(D17,C18)+C1</f>
-        <v>806</v>
+        <f>MAX(D17,C18)+C1</f>
+        <v>1693</v>
       </c>
       <c r="D17" s="5">
-        <f>MIN(E17,D18)+D1</f>
-        <v>858</v>
+        <f>MAX(E17,D18)+D1</f>
+        <v>1664</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ref="E17:E18" si="1">E18+E1</f>
-        <v>788</v>
+        <v>1536</v>
       </c>
       <c r="F17" s="4">
-        <f>MIN(G17,F18)+F1</f>
-        <v>957</v>
+        <f>MAX(G17,F18)+F1</f>
+        <v>1542</v>
       </c>
       <c r="G17" s="5">
-        <f>MIN(H17,G18)+G1</f>
-        <v>902</v>
+        <f>MAX(H17,G18)+G1</f>
+        <v>1433</v>
       </c>
       <c r="H17" s="5">
-        <f>MIN(I17,H18)+H1</f>
-        <v>880</v>
+        <f>MAX(I17,H18)+H1</f>
+        <v>1390</v>
       </c>
       <c r="I17" s="5">
-        <f>MIN(J17,I18)+I1</f>
-        <v>816</v>
+        <f>MAX(J17,I18)+I1</f>
+        <v>1318</v>
       </c>
       <c r="J17" s="5">
-        <f>MIN(K17,J18)+J1</f>
-        <v>776</v>
+        <f>MAX(K17,J18)+J1</f>
+        <v>1222</v>
       </c>
       <c r="K17" s="5">
-        <f>MIN(L17,K18)+K1</f>
-        <v>763</v>
+        <f>MAX(L17,K18)+K1</f>
+        <v>1201</v>
       </c>
       <c r="L17" s="5">
-        <f>MIN(M17,L18)+L1</f>
-        <v>849</v>
+        <f>MAX(M17,L18)+L1</f>
+        <v>1171</v>
       </c>
       <c r="M17" s="5">
-        <f>MIN(N17,M18)+M1</f>
-        <v>766</v>
+        <f>MAX(N17,M18)+M1</f>
+        <v>1036</v>
       </c>
       <c r="N17" s="5">
-        <f>MIN(O17,N18)+N1</f>
-        <v>745</v>
+        <f>MAX(O17,N18)+N1</f>
+        <v>910</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" ref="O17:O29" si="2">O18+O1</f>
         <v>845</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f>MIN(B18,A19)+A2</f>
-        <v>935</v>
+        <f>MAX(B18,A19)+A2</f>
+        <v>1652</v>
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>942</v>
+        <v>1613</v>
       </c>
       <c r="C18" s="6">
-        <f>MIN(D18,C19)+C2</f>
-        <v>781</v>
+        <f>MAX(D18,C19)+C2</f>
+        <v>1668</v>
       </c>
       <c r="D18" s="7">
-        <f>MIN(E18,D19)+D2</f>
-        <v>807</v>
+        <f>MAX(E18,D19)+D2</f>
+        <v>1594</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
-        <v>725</v>
+        <v>1473</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:J18" si="3">G18+F2</f>
-        <v>1049</v>
+        <v>1487</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="3"/>
-        <v>973</v>
+        <v>1411</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>1326</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>1278</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>1209</v>
       </c>
       <c r="K18" s="7">
-        <f>MIN(L18,K19)+K2</f>
-        <v>743</v>
+        <f>MAX(L18,K19)+K2</f>
+        <v>1181</v>
       </c>
       <c r="L18" s="7">
-        <f>MIN(M18,L19)+L2</f>
-        <v>768</v>
+        <f>MAX(M18,L19)+L2</f>
+        <v>1088</v>
       </c>
       <c r="M18" s="7">
-        <f>MIN(N18,M19)+M2</f>
-        <v>762</v>
+        <f>MAX(N18,M19)+M2</f>
+        <v>1015</v>
       </c>
       <c r="N18" s="7">
-        <f>MIN(O18,N19)+N2</f>
-        <v>680</v>
+        <f>MAX(O18,N19)+N2</f>
+        <v>830</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="2"/>
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickTop="1">
+    <row r="19" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f>MIN(B19,A20)+A3</f>
-        <v>908</v>
+        <f>MAX(B19,A20)+A3</f>
+        <v>1625</v>
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>1559</v>
       </c>
       <c r="C19" s="6">
-        <f>MIN(D19,C20)+C3</f>
-        <v>707</v>
+        <f>MAX(D19,C20)+C3</f>
+        <v>1523</v>
       </c>
       <c r="D19" s="7">
-        <f>MIN(E19,D20)+D3</f>
-        <v>758</v>
+        <f>MAX(E19,D20)+D3</f>
+        <v>1512</v>
       </c>
       <c r="E19" s="7">
-        <f>MIN(F19,E20)+E3</f>
-        <v>682</v>
+        <f>MAX(F19,E20)+E3</f>
+        <v>1430</v>
       </c>
       <c r="F19" s="5">
-        <f>MIN(G19,F20)+F3</f>
-        <v>659</v>
+        <f>MAX(G19,F20)+F3</f>
+        <v>1386</v>
       </c>
       <c r="G19" s="5">
-        <f>MIN(H19,G20)+G3</f>
-        <v>582</v>
+        <f>MAX(H19,G20)+G3</f>
+        <v>1305</v>
       </c>
       <c r="H19" s="5">
-        <f>MIN(I19,H20)+H3</f>
-        <v>642</v>
+        <f>MAX(I19,H20)+H3</f>
+        <v>1269</v>
       </c>
       <c r="I19" s="5">
-        <f>MIN(J19,I20)+I3</f>
-        <v>637</v>
+        <f>MAX(J19,I20)+I3</f>
+        <v>1220</v>
       </c>
       <c r="J19" s="5">
-        <f>MIN(K19,J20)+J3</f>
-        <v>605</v>
+        <f>MAX(K19,J20)+J3</f>
+        <v>1144</v>
       </c>
       <c r="K19" s="7">
-        <f>MIN(L19,K20)+K3</f>
-        <v>664</v>
+        <f>MAX(L19,K20)+K3</f>
+        <v>1102</v>
       </c>
       <c r="L19" s="7">
-        <f>MIN(M19,L20)+L3</f>
-        <v>695</v>
+        <f>MAX(M19,L20)+L3</f>
+        <v>1015</v>
       </c>
       <c r="M19" s="7">
-        <f>MIN(N19,M20)+M3</f>
-        <v>673</v>
+        <f>MAX(N19,M20)+M3</f>
+        <v>926</v>
       </c>
       <c r="N19" s="7">
-        <f>MIN(O19,N20)+N3</f>
-        <v>605</v>
+        <f>MAX(O19,N20)+N3</f>
+        <v>731</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="2"/>
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f>MIN(B20,A21)+A4</f>
-        <v>904</v>
+        <f>MAX(B20,A21)+A4</f>
+        <v>1605</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>837</v>
+        <v>1508</v>
       </c>
       <c r="C20" s="6">
-        <f>MIN(D20,C21)+C4</f>
-        <v>696</v>
+        <f>MAX(D20,C21)+C4</f>
+        <v>1332</v>
       </c>
       <c r="D20" s="7">
-        <f>MIN(E20,D21)+D4</f>
-        <v>676</v>
+        <f>MAX(E20,D21)+D4</f>
+        <v>1296</v>
       </c>
       <c r="E20" s="7">
-        <f>MIN(F20,E21)+E4</f>
-        <v>638</v>
+        <f>MAX(F20,E21)+E4</f>
+        <v>1219</v>
       </c>
       <c r="F20" s="7">
-        <f>MIN(G20,F21)+F4</f>
-        <v>578</v>
+        <f>MAX(G20,F21)+F4</f>
+        <v>1144</v>
       </c>
       <c r="G20" s="7">
-        <f>MIN(H20,G21)+G4</f>
-        <v>546</v>
+        <f>MAX(H20,G21)+G4</f>
+        <v>1112</v>
       </c>
       <c r="H20" s="7">
-        <f>MIN(I20,H21)+H4</f>
-        <v>593</v>
+        <f>MAX(I20,H21)+H4</f>
+        <v>1097</v>
       </c>
       <c r="I20" s="7">
-        <f>MIN(J20,I21)+I4</f>
-        <v>561</v>
+        <f>MAX(J20,I21)+I4</f>
+        <v>1048</v>
       </c>
       <c r="J20" s="7">
-        <f>MIN(K20,J21)+J4</f>
-        <v>563</v>
+        <f>MAX(K20,J21)+J4</f>
+        <v>1015</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" ref="K20:K23" si="4">K21+K4</f>
-        <v>577</v>
+        <v>887</v>
       </c>
       <c r="L20" s="6">
-        <f>MIN(M20,L21)+L4</f>
-        <v>606</v>
+        <f>MAX(M20,L21)+L4</f>
+        <v>884</v>
       </c>
       <c r="M20" s="7">
-        <f>MIN(N20,M21)+M4</f>
-        <v>654</v>
+        <f>MAX(N20,M21)+M4</f>
+        <v>858</v>
       </c>
       <c r="N20" s="7">
-        <f>MIN(O20,N21)+N4</f>
-        <v>579</v>
+        <f>MAX(O20,N21)+N4</f>
+        <v>685</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f>MIN(B21,A22)+A5</f>
-        <v>817</v>
+        <f>MAX(B21,A22)+A5</f>
+        <v>1518</v>
       </c>
       <c r="B21" s="7">
-        <f>MIN(C21,B22)+B5</f>
-        <v>756</v>
+        <f>MAX(C21,B22)+B5</f>
+        <v>1427</v>
       </c>
       <c r="C21" s="7">
-        <f>MIN(D21,C22)+C5</f>
-        <v>725</v>
+        <f>MAX(D21,C22)+C5</f>
+        <v>1312</v>
       </c>
       <c r="D21" s="7">
-        <f>MIN(E21,D22)+D5</f>
-        <v>671</v>
+        <f>MAX(E21,D22)+D5</f>
+        <v>1258</v>
       </c>
       <c r="E21" s="7">
-        <f>MIN(F21,E22)+E5</f>
-        <v>585</v>
+        <f>MAX(F21,E22)+E5</f>
+        <v>1159</v>
       </c>
       <c r="F21" s="7">
-        <f>MIN(G21,F22)+F5</f>
-        <v>559</v>
+        <f>MAX(G21,F22)+F5</f>
+        <v>1088</v>
       </c>
       <c r="G21" s="11">
         <f>G22+G5</f>
-        <v>531</v>
+        <v>1045</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ref="H21:I21" si="5">I21+H5</f>
-        <v>613</v>
+        <v>1065</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="5"/>
-        <v>528</v>
+        <v>980</v>
       </c>
       <c r="J21" s="7">
-        <f>MIN(K21,J22)+J5</f>
-        <v>517</v>
+        <f>MAX(K21,J22)+J5</f>
+        <v>969</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="4"/>
-        <v>538</v>
+        <v>848</v>
       </c>
       <c r="L21" s="6">
-        <f>MIN(M21,L22)+L5</f>
-        <v>580</v>
+        <f>MAX(M21,L22)+L5</f>
+        <v>819</v>
       </c>
       <c r="M21" s="7">
-        <f>MIN(N21,M22)+M5</f>
-        <v>644</v>
+        <f>MAX(N21,M22)+M5</f>
+        <v>783</v>
       </c>
       <c r="N21" s="7">
-        <f>MIN(O21,N22)+N5</f>
-        <v>564</v>
+        <f>MAX(O21,N22)+N5</f>
+        <v>670</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickTop="1">
+    <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f>MIN(B22,A23)+A6</f>
-        <v>815</v>
+        <f>MAX(B22,A23)+A6</f>
+        <v>1457</v>
       </c>
       <c r="B22" s="7">
-        <f>MIN(C22,B23)+B6</f>
-        <v>779</v>
+        <f>MAX(C22,B23)+B6</f>
+        <v>1396</v>
       </c>
       <c r="C22" s="7">
-        <f>MIN(D22,C23)+C6</f>
-        <v>728</v>
+        <f>MAX(D22,C23)+C6</f>
+        <v>1258</v>
       </c>
       <c r="D22" s="7">
-        <f>MIN(E22,D23)+D6</f>
-        <v>642</v>
+        <f>MAX(E22,D23)+D6</f>
+        <v>1172</v>
       </c>
       <c r="E22" s="7">
-        <f>MIN(F22,E23)+E6</f>
-        <v>609</v>
+        <f>MAX(F22,E23)+E6</f>
+        <v>1133</v>
       </c>
       <c r="F22" s="7">
-        <f>MIN(G22,F23)+F6</f>
-        <v>536</v>
+        <f>MAX(G22,F23)+F6</f>
+        <v>1060</v>
       </c>
       <c r="G22" s="7">
-        <f>MIN(H22,G23)+G6</f>
-        <v>509</v>
+        <f>MAX(H22,G23)+G6</f>
+        <v>1023</v>
       </c>
       <c r="H22" s="5">
-        <f>MIN(I22,H23)+H6</f>
-        <v>480</v>
+        <f>MAX(I22,H23)+H6</f>
+        <v>972</v>
       </c>
       <c r="I22" s="5">
-        <f>MIN(J22,I23)+I6</f>
-        <v>418</v>
+        <f>MAX(J22,I23)+I6</f>
+        <v>910</v>
       </c>
       <c r="J22" s="7">
-        <f>MIN(K22,J23)+J6</f>
-        <v>446</v>
+        <f>MAX(K22,J23)+J6</f>
+        <v>898</v>
       </c>
       <c r="K22" s="11">
         <f>K23+K6</f>
-        <v>524</v>
+        <v>834</v>
       </c>
       <c r="L22" s="6">
-        <f>MIN(M22,L23)+L6</f>
-        <v>544</v>
+        <f>MAX(M22,L23)+L6</f>
+        <v>741</v>
       </c>
       <c r="M22" s="7">
-        <f>MIN(N22,M23)+M6</f>
-        <v>555</v>
+        <f>MAX(N22,M23)+M6</f>
+        <v>694</v>
       </c>
       <c r="N22" s="7">
-        <f>MIN(O22,N23)+N6</f>
-        <v>513</v>
+        <f>MAX(O22,N23)+N6</f>
+        <v>619</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="2"/>
@@ -1545,503 +1552,503 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f>MIN(B23,A24)+A7</f>
-        <v>766</v>
+        <f>MAX(B23,A24)+A7</f>
+        <v>1408</v>
       </c>
       <c r="B23" s="7">
-        <f>MIN(C23,B24)+B7</f>
-        <v>691</v>
+        <f>MAX(C23,B24)+B7</f>
+        <v>1308</v>
       </c>
       <c r="C23" s="7">
-        <f>MIN(D23,C24)+C7</f>
-        <v>642</v>
+        <f>MAX(D23,C24)+C7</f>
+        <v>1136</v>
       </c>
       <c r="D23" s="7">
-        <f>MIN(E23,D24)+D7</f>
-        <v>603</v>
+        <f>MAX(E23,D24)+D7</f>
+        <v>1097</v>
       </c>
       <c r="E23" s="7">
-        <f>MIN(F23,E24)+E7</f>
-        <v>568</v>
+        <f>MAX(F23,E24)+E7</f>
+        <v>1055</v>
       </c>
       <c r="F23" s="7">
-        <f>MIN(G23,F24)+F7</f>
-        <v>546</v>
+        <f>MAX(G23,F24)+F7</f>
+        <v>1033</v>
       </c>
       <c r="G23" s="7">
-        <f>MIN(H23,G24)+G7</f>
-        <v>458</v>
+        <f>MAX(H23,G24)+G7</f>
+        <v>926</v>
       </c>
       <c r="H23" s="7">
-        <f>MIN(I23,H24)+H7</f>
-        <v>419</v>
+        <f>MAX(I23,H24)+H7</f>
+        <v>861</v>
       </c>
       <c r="I23" s="7">
-        <f>MIN(J23,I24)+I7</f>
-        <v>406</v>
+        <f>MAX(J23,I24)+I7</f>
+        <v>848</v>
       </c>
       <c r="J23" s="7">
-        <f>MIN(K23,J24)+J7</f>
-        <v>382</v>
+        <f>MAX(K23,J24)+J7</f>
+        <v>799</v>
       </c>
       <c r="K23" s="11">
         <f t="shared" si="4"/>
-        <v>476</v>
+        <v>786</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" ref="L23:M23" si="6">M23+L7</f>
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="6"/>
-        <v>480</v>
+        <v>586</v>
       </c>
       <c r="N23" s="7">
-        <f>MIN(O23,N24)+N7</f>
-        <v>426</v>
+        <f>MAX(O23,N24)+N7</f>
+        <v>532</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickTop="1">
+    <row r="24" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f>MIN(B24,A25)+A8</f>
-        <v>740</v>
+        <f>MAX(B24,A25)+A8</f>
+        <v>1333</v>
       </c>
       <c r="B24" s="7">
-        <f>MIN(C24,B25)+B8</f>
-        <v>678</v>
+        <f>MAX(C24,B25)+B8</f>
+        <v>1259</v>
       </c>
       <c r="C24" s="7">
-        <f>MIN(D24,C25)+C8</f>
-        <v>604</v>
+        <f>MAX(D24,C25)+C8</f>
+        <v>1081</v>
       </c>
       <c r="D24" s="7">
-        <f>MIN(E24,D25)+D8</f>
-        <v>561</v>
+        <f>MAX(E24,D25)+D8</f>
+        <v>1027</v>
       </c>
       <c r="E24" s="7">
-        <f>MIN(F24,E25)+E8</f>
-        <v>552</v>
+        <f>MAX(F24,E25)+E8</f>
+        <v>1007</v>
       </c>
       <c r="F24" s="7">
-        <f>MIN(G24,F25)+F8</f>
-        <v>502</v>
+        <f>MAX(G24,F25)+F8</f>
+        <v>945</v>
       </c>
       <c r="G24" s="7">
-        <f>MIN(H24,G25)+G8</f>
-        <v>459</v>
+        <f>MAX(H24,G25)+G8</f>
+        <v>887</v>
       </c>
       <c r="H24" s="7">
-        <f>MIN(I24,H25)+H8</f>
-        <v>448</v>
+        <f>MAX(I24,H25)+H8</f>
+        <v>841</v>
       </c>
       <c r="I24" s="7">
-        <f>MIN(J24,I25)+I8</f>
-        <v>431</v>
+        <f>MAX(J24,I25)+I8</f>
+        <v>824</v>
       </c>
       <c r="J24" s="7">
-        <f>MIN(K24,J25)+J8</f>
-        <v>369</v>
+        <f>MAX(K24,J25)+J8</f>
+        <v>758</v>
       </c>
       <c r="K24" s="7">
-        <f>MIN(L24,K25)+K8</f>
-        <v>424</v>
+        <f>MAX(L24,K25)+K8</f>
+        <v>734</v>
       </c>
       <c r="L24" s="5">
-        <f>MIN(M24,L25)+L8</f>
-        <v>340</v>
+        <f>MAX(M24,L25)+L8</f>
+        <v>593</v>
       </c>
       <c r="M24" s="5">
-        <f>MIN(N24,M25)+M8</f>
-        <v>371</v>
+        <f>MAX(N24,M25)+M8</f>
+        <v>532</v>
       </c>
       <c r="N24" s="7">
-        <f>MIN(O24,N25)+N8</f>
-        <v>362</v>
+        <f>MAX(O24,N25)+N8</f>
+        <v>449</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="2"/>
         <v>386</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f>MIN(B25,A26)+A9</f>
-        <v>666</v>
+        <f>MAX(B25,A26)+A9</f>
+        <v>1242</v>
       </c>
       <c r="B25" s="7">
-        <f>MIN(C25,B26)+B9</f>
-        <v>619</v>
+        <f>MAX(C25,B26)+B9</f>
+        <v>1185</v>
       </c>
       <c r="C25" s="7">
-        <f>MIN(D25,C26)+C9</f>
-        <v>554</v>
+        <f>MAX(D25,C26)+C9</f>
+        <v>1031</v>
       </c>
       <c r="D25" s="7">
-        <f>MIN(E25,D26)+D9</f>
-        <v>541</v>
+        <f>MAX(E25,D26)+D9</f>
+        <v>984</v>
       </c>
       <c r="E25" s="9">
         <f>F25+E9</f>
-        <v>490</v>
+        <v>933</v>
       </c>
       <c r="F25" s="7">
-        <f>MIN(G25,F26)+F9</f>
-        <v>448</v>
+        <f>MAX(G25,F26)+F9</f>
+        <v>891</v>
       </c>
       <c r="G25" s="7">
-        <f>MIN(H25,G26)+G9</f>
-        <v>479</v>
+        <f>MAX(H25,G26)+G9</f>
+        <v>876</v>
       </c>
       <c r="H25" s="7">
-        <f>MIN(I25,H26)+H9</f>
-        <v>454</v>
+        <f>MAX(I25,H26)+H9</f>
+        <v>824</v>
       </c>
       <c r="I25" s="7">
-        <f>MIN(J25,I26)+I9</f>
-        <v>365</v>
+        <f>MAX(J25,I26)+I9</f>
+        <v>714</v>
       </c>
       <c r="J25" s="7">
-        <f>MIN(K25,J26)+J9</f>
-        <v>345</v>
+        <f>MAX(K25,J26)+J9</f>
+        <v>694</v>
       </c>
       <c r="K25" s="7">
-        <f>MIN(L25,K26)+K9</f>
-        <v>356</v>
+        <f>MAX(L25,K26)+K9</f>
+        <v>650</v>
       </c>
       <c r="L25" s="7">
-        <f>MIN(M25,L26)+L9</f>
-        <v>293</v>
+        <f>MAX(M25,L26)+L9</f>
+        <v>546</v>
       </c>
       <c r="M25" s="7">
-        <f>MIN(N25,M26)+M9</f>
-        <v>320</v>
+        <f>MAX(N25,M26)+M9</f>
+        <v>481</v>
       </c>
       <c r="N25" s="7">
-        <f>MIN(O25,N26)+N9</f>
-        <v>351</v>
+        <f>MAX(O25,N26)+N9</f>
+        <v>438</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" si="2"/>
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickTop="1">
+    <row r="26" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f>MIN(B26,A27)+A10</f>
-        <v>609</v>
+        <f>MAX(B26,A27)+A10</f>
+        <v>1138</v>
       </c>
       <c r="B26" s="7">
-        <f>MIN(C26,B27)+B10</f>
-        <v>594</v>
+        <f>MAX(C26,B27)+B10</f>
+        <v>1120</v>
       </c>
       <c r="C26" s="7">
-        <f>MIN(D26,C27)+C10</f>
-        <v>507</v>
+        <f>MAX(D26,C27)+C10</f>
+        <v>951</v>
       </c>
       <c r="D26" s="11">
         <f>D27+D10</f>
-        <v>538</v>
+        <v>915</v>
       </c>
       <c r="E26" s="4">
-        <f>MIN(F26,E27)+E10</f>
-        <v>502</v>
+        <f>MAX(F26,E27)+E10</f>
+        <v>874</v>
       </c>
       <c r="F26" s="7">
-        <f>MIN(G26,F27)+F10</f>
-        <v>433</v>
+        <f>MAX(G26,F27)+F10</f>
+        <v>805</v>
       </c>
       <c r="G26" s="7">
-        <f>MIN(H26,G27)+G10</f>
-        <v>427</v>
+        <f>MAX(H26,G27)+G10</f>
+        <v>788</v>
       </c>
       <c r="H26" s="7">
-        <f>MIN(I26,H27)+H10</f>
-        <v>412</v>
+        <f>MAX(I26,H27)+H10</f>
+        <v>735</v>
       </c>
       <c r="I26" s="7">
-        <f>MIN(J26,I27)+I10</f>
-        <v>351</v>
+        <f>MAX(J26,I27)+I10</f>
+        <v>674</v>
       </c>
       <c r="J26" s="7">
-        <f>MIN(K26,J27)+J10</f>
-        <v>301</v>
+        <f>MAX(K26,J27)+J10</f>
+        <v>624</v>
       </c>
       <c r="K26" s="7">
-        <f>MIN(L26,K27)+K10</f>
-        <v>277</v>
+        <f>MAX(L26,K27)+K10</f>
+        <v>571</v>
       </c>
       <c r="L26" s="7">
-        <f>MIN(M26,L27)+L10</f>
-        <v>263</v>
+        <f>MAX(M26,L27)+L10</f>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
-        <f>MIN(N26,M27)+M10</f>
-        <v>286</v>
+        <f>MAX(N26,M27)+M10</f>
+        <v>447</v>
       </c>
       <c r="N26" s="7">
-        <f>MIN(O26,N27)+N10</f>
-        <v>280</v>
+        <f>MAX(O26,N27)+N10</f>
+        <v>367</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f>MIN(B27,A28)+A11</f>
-        <v>591</v>
+        <f>MAX(B27,A28)+A11</f>
+        <v>1065</v>
       </c>
       <c r="B27" s="7">
-        <f>MIN(C27,B28)+B11</f>
-        <v>559</v>
+        <f>MAX(C27,B28)+B11</f>
+        <v>1033</v>
       </c>
       <c r="C27" s="7">
-        <f>MIN(D27,C28)+C11</f>
-        <v>471</v>
+        <f>MAX(D27,C28)+C11</f>
+        <v>883</v>
       </c>
       <c r="D27" s="7">
-        <f>MIN(E27,D28)+D11</f>
-        <v>450</v>
+        <f>MAX(E27,D28)+D11</f>
+        <v>827</v>
       </c>
       <c r="E27" s="7">
-        <f>MIN(F27,E28)+E11</f>
+        <f>MAX(F27,E28)+E11</f>
+        <v>736</v>
+      </c>
+      <c r="F27" s="7">
+        <f>MAX(G27,F28)+F11</f>
+        <v>716</v>
+      </c>
+      <c r="G27" s="7">
+        <f>MAX(H27,G28)+G11</f>
+        <v>669</v>
+      </c>
+      <c r="H27" s="7">
+        <f>MAX(I27,H28)+H11</f>
+        <v>642</v>
+      </c>
+      <c r="I27" s="7">
+        <f>MAX(J27,I28)+I11</f>
+        <v>590</v>
+      </c>
+      <c r="J27" s="7">
+        <f>MAX(K27,J28)+J11</f>
+        <v>462</v>
+      </c>
+      <c r="K27" s="7">
+        <f>MAX(L27,K28)+K11</f>
         <v>436</v>
       </c>
-      <c r="F27" s="7">
-        <f>MIN(G27,F28)+F11</f>
-        <v>416</v>
-      </c>
-      <c r="G27" s="7">
-        <f>MIN(H27,G28)+G11</f>
-        <v>374</v>
-      </c>
-      <c r="H27" s="7">
-        <f>MIN(I27,H28)+H11</f>
-        <v>383</v>
-      </c>
-      <c r="I27" s="7">
-        <f>MIN(J27,I28)+I11</f>
-        <v>331</v>
-      </c>
-      <c r="J27" s="7">
-        <f>MIN(K27,J28)+J11</f>
-        <v>248</v>
-      </c>
-      <c r="K27" s="7">
-        <f>MIN(L27,K28)+K11</f>
-        <v>222</v>
-      </c>
       <c r="L27" s="7">
-        <f>MIN(M27,L28)+L11</f>
-        <v>194</v>
+        <f>MAX(M27,L28)+L11</f>
+        <v>388</v>
       </c>
       <c r="M27" s="7">
-        <f>MIN(N27,M28)+M11</f>
-        <v>206</v>
+        <f>MAX(N27,M28)+M11</f>
+        <v>349</v>
       </c>
       <c r="N27" s="7">
-        <f>MIN(O27,N28)+N11</f>
-        <v>201</v>
+        <f>MAX(O27,N28)+N11</f>
+        <v>288</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f>MIN(B28,A29)+A12</f>
-        <v>577</v>
+        <f>MAX(B28,A29)+A12</f>
+        <v>997</v>
       </c>
       <c r="B28" s="7">
-        <f>MIN(C28,B29)+B12</f>
-        <v>590</v>
+        <f>MAX(C28,B29)+B12</f>
+        <v>945</v>
       </c>
       <c r="C28" s="7">
-        <f>MIN(D28,C29)+C12</f>
-        <v>535</v>
+        <f>MAX(D28,C29)+C12</f>
+        <v>862</v>
       </c>
       <c r="D28" s="7">
-        <f>MIN(E28,D29)+D12</f>
-        <v>524</v>
+        <f>MAX(E28,D29)+D12</f>
+        <v>813</v>
       </c>
       <c r="E28" s="7">
-        <f>MIN(F28,E29)+E12</f>
-        <v>437</v>
+        <f>MAX(F28,E29)+E12</f>
+        <v>690</v>
       </c>
       <c r="F28" s="7">
-        <f>MIN(G28,F29)+F12</f>
-        <v>425</v>
+        <f>MAX(G28,F29)+F12</f>
+        <v>674</v>
       </c>
       <c r="G28" s="7">
-        <f>MIN(H28,G29)+G12</f>
-        <v>347</v>
+        <f>MAX(H28,G29)+G12</f>
+        <v>562</v>
       </c>
       <c r="H28" s="7">
-        <f>MIN(I28,H29)+H12</f>
-        <v>334</v>
+        <f>MAX(I28,H29)+H12</f>
+        <v>549</v>
       </c>
       <c r="I28" s="7">
-        <f>MIN(J28,I29)+I12</f>
-        <v>292</v>
+        <f>MAX(J28,I29)+I12</f>
+        <v>507</v>
       </c>
       <c r="J28" s="7">
-        <f>MIN(K28,J29)+J12</f>
-        <v>222</v>
+        <f>MAX(K28,J29)+J12</f>
+        <v>436</v>
       </c>
       <c r="K28" s="7">
-        <f>MIN(L28,K29)+K12</f>
-        <v>182</v>
+        <f>MAX(L28,K29)+K12</f>
+        <v>396</v>
       </c>
       <c r="L28" s="7">
-        <f>MIN(M28,L29)+L12</f>
-        <v>166</v>
+        <f>MAX(M28,L29)+L12</f>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
-        <f>MIN(N28,M29)+M12</f>
-        <v>177</v>
+        <f>MAX(N28,M29)+M12</f>
+        <v>320</v>
       </c>
       <c r="N28" s="7">
-        <f>MIN(O28,N29)+N12</f>
-        <v>155</v>
+        <f>MAX(O28,N29)+N12</f>
+        <v>242</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f>MIN(B29,A30)+A13</f>
-        <v>525</v>
+        <f>MAX(B29,A30)+A13</f>
+        <v>899</v>
       </c>
       <c r="B29" s="7">
-        <f>MIN(C29,B30)+B13</f>
-        <v>510</v>
+        <f>MAX(C29,B30)+B13</f>
+        <v>865</v>
       </c>
       <c r="C29" s="7">
-        <f>MIN(D29,C30)+C13</f>
-        <v>486</v>
+        <f>MAX(D29,C30)+C13</f>
+        <v>790</v>
       </c>
       <c r="D29" s="7">
-        <f>MIN(E29,D30)+D13</f>
-        <v>484</v>
+        <f>MAX(E29,D30)+D13</f>
+        <v>726</v>
       </c>
       <c r="E29" s="7">
-        <f>MIN(F29,E30)+E13</f>
-        <v>474</v>
+        <f>MAX(F29,E30)+E13</f>
+        <v>678</v>
       </c>
       <c r="F29" s="7">
-        <f>MIN(G29,F30)+F13</f>
-        <v>395</v>
+        <f>MAX(G29,F30)+F13</f>
+        <v>596</v>
       </c>
       <c r="G29" s="7">
-        <f>MIN(H29,G30)+G13</f>
-        <v>342</v>
+        <f>MAX(H29,G30)+G13</f>
+        <v>543</v>
       </c>
       <c r="H29" s="7">
-        <f>MIN(I29,H30)+H13</f>
-        <v>309</v>
+        <f>MAX(I29,H30)+H13</f>
+        <v>503</v>
       </c>
       <c r="I29" s="7">
-        <f>MIN(J29,I30)+I13</f>
-        <v>243</v>
+        <f>MAX(J29,I30)+I13</f>
+        <v>437</v>
       </c>
       <c r="J29" s="7">
-        <f>MIN(K29,J30)+J13</f>
-        <v>200</v>
+        <f>MAX(K29,J30)+J13</f>
+        <v>394</v>
       </c>
       <c r="K29" s="7">
-        <f>MIN(L29,K30)+K13</f>
-        <v>186</v>
+        <f>MAX(L29,K30)+K13</f>
+        <v>380</v>
       </c>
       <c r="L29" s="7">
-        <f>MIN(M29,L30)+L13</f>
-        <v>145</v>
+        <f>MAX(M29,L30)+L13</f>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
-        <f>MIN(N29,M30)+M13</f>
-        <v>134</v>
+        <f>MAX(N29,M30)+M13</f>
+        <v>277</v>
       </c>
       <c r="N29" s="7">
-        <f>MIN(O29,N30)+N13</f>
-        <v>118</v>
+        <f>MAX(O29,N30)+N13</f>
+        <v>197</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f>MIN(B30,A31)+A14</f>
-        <v>491</v>
+        <f>MAX(B30,A31)+A14</f>
+        <v>658</v>
       </c>
       <c r="B30" s="7">
-        <f>MIN(C30,B31)+B14</f>
-        <v>435</v>
+        <f>MAX(C30,B31)+B14</f>
+        <v>602</v>
       </c>
       <c r="C30" s="7">
-        <f>MIN(D30,C31)+C14</f>
-        <v>422</v>
+        <f>MAX(D30,C31)+C14</f>
+        <v>583</v>
       </c>
       <c r="D30" s="7">
-        <f>MIN(E30,D31)+D14</f>
-        <v>436</v>
+        <f>MAX(E30,D31)+D14</f>
+        <v>560</v>
       </c>
       <c r="E30" s="7">
-        <f>MIN(F30,E31)+E14</f>
-        <v>392</v>
+        <f>MAX(F30,E31)+E14</f>
+        <v>500</v>
       </c>
       <c r="F30" s="7">
-        <f>MIN(G30,F31)+F14</f>
-        <v>348</v>
+        <f>MAX(G30,F31)+F14</f>
+        <v>423</v>
       </c>
       <c r="G30" s="7">
-        <f>MIN(H30,G31)+G14</f>
-        <v>302</v>
+        <f>MAX(H30,G31)+G14</f>
+        <v>373</v>
       </c>
       <c r="H30" s="7">
-        <f>MIN(I30,H31)+H14</f>
-        <v>260</v>
+        <f>MAX(I30,H31)+H14</f>
+        <v>331</v>
       </c>
       <c r="I30" s="7">
-        <f>MIN(J30,I31)+I14</f>
-        <v>217</v>
+        <f>MAX(J30,I31)+I14</f>
+        <v>277</v>
       </c>
       <c r="J30" s="7">
-        <f>MIN(K30,J31)+J14</f>
-        <v>196</v>
+        <f>MAX(K30,J31)+J14</f>
+        <v>253</v>
       </c>
       <c r="K30" s="7">
-        <f>MIN(L30,K31)+K14</f>
-        <v>170</v>
+        <f>MAX(L30,K31)+K14</f>
+        <v>227</v>
       </c>
       <c r="L30" s="7">
-        <f>MIN(M30,L31)+L14</f>
-        <v>83</v>
+        <f>MAX(M30,L31)+L14</f>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
-        <f>MIN(N30,M31)+M14</f>
-        <v>54</v>
+        <f>MAX(N30,M31)+M14</f>
+        <v>99</v>
       </c>
       <c r="N30" s="7">
-        <f>MIN(O30,N31)+N14</f>
-        <v>51</v>
+        <f>MAX(O30,N31)+N14</f>
+        <v>84</v>
       </c>
       <c r="O30" s="11">
         <f>O31+O14</f>
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" ref="A31:M31" si="7">B31+A15</f>
         <v>472</v>
